--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -55,6 +61,18 @@
     <t>博时创业成长混合C</t>
   </si>
   <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
     <t>54.25</t>
   </si>
   <si>
@@ -71,6 +89,18 @@
   </si>
   <si>
     <t>3.62</t>
+  </si>
+  <si>
+    <t>0.1817</t>
+  </si>
+  <si>
+    <t>0.1123</t>
+  </si>
+  <si>
+    <t>0.0894</t>
+  </si>
+  <si>
+    <t>0.0040</t>
   </si>
 </sst>
 </file>
@@ -428,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,84 +480,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>050007</t>
-  </si>
-  <si>
-    <t>050012</t>
-  </si>
-  <si>
-    <t>050014</t>
-  </si>
-  <si>
-    <t>002553</t>
-  </si>
-  <si>
-    <t>博时平衡配置混合</t>
-  </si>
-  <si>
-    <t>博时策略混合</t>
-  </si>
-  <si>
-    <t>博时创业成长混合A</t>
-  </si>
-  <si>
-    <t>博时创业成长混合C</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>2.47</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>54.25</t>
-  </si>
-  <si>
-    <t>75.60</t>
-  </si>
-  <si>
-    <t>81.70</t>
-  </si>
-  <si>
-    <t>4.13</t>
-  </si>
-  <si>
-    <t>3.73</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>0.1817</t>
-  </si>
-  <si>
-    <t>0.1123</t>
-  </si>
-  <si>
-    <t>0.0894</t>
-  </si>
-  <si>
-    <t>0.0040</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001296</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城转型成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.47</v>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1672,13 +1737,401 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.65</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.62</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47</v>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.65</v>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2318,14 +2383,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.62</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2334,14 +2421,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.47</v>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2689</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2350,13 +2459,735 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005599</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>050007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时平衡配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>54.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1817</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>050012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1123</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>050014</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时创业成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0894</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002553</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时创业成长混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -664,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519002</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安信消费混合</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.28</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5633</t>
+          <t>0.5430</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>84.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3758</t>
+          <t>0.4589</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -791,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>050007</t>
+          <t>012421</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时平衡配置混合</t>
+          <t>华夏优加生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54.25</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1227</t>
+          <t>0.2936</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -829,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>240004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>华宝动力组合混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>77.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1036</t>
+          <t>0.2689</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -867,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050012</t>
+          <t>005888</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时策略混合</t>
+          <t>华夏新兴消费混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.14</t>
+          <t>91.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0954</t>
+          <t>0.2271</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -905,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>050014</t>
+          <t>005889</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时创业成长混合A</t>
+          <t>华夏新兴消费混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>91.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.1636</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -943,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002005</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信新得利混合</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.98</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0483</t>
+          <t>0.1152</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -981,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005329</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富民安增益定期开放混合A</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0955</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1019,32 +943,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>001088</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>华宝国策导向混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.39</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0923</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1057,32 +981,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005330</t>
+          <t>011748</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富民安增益定期开放混合C</t>
+          <t>华泰柏瑞景气成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28.94</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.0843</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1095,32 +1019,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001563</t>
+          <t>005599</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华富健康文娱灵活配置混合</t>
+          <t>汇安量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1133,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001296</t>
+          <t>010032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长城转型成长灵活配置混合</t>
+          <t>华泰柏瑞战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>53.69</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0140</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1171,36 +1095,300 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002553</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时创业成长混合C</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005600</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,7 +1423,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1265,36 +1453,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519002</t>
+          <t>377010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安信消费混合</t>
+          <t>上投摩根阿尔法混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.09</t>
+          <t>89.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7578</t>
+          <t>0.3871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1303,36 +1491,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>000457</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>上投摩根核心成长</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>87.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.3813</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1341,36 +1529,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>005526</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>工银瑞信新生代消费灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.87</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1464</t>
+          <t>0.0914</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1379,226 +1567,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>29.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.0539</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005409</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0872</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005329</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富民安增益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0344</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005330</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富民安增益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25.30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010032</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.95</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,7 +2067,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2099,36 +2097,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>华安安信消费混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>25.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.24</t>
+          <t>80.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3871</t>
+          <t>0.7578</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2137,36 +2135,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3813</t>
+          <t>0.3800</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2175,36 +2173,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>90.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.1464</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2213,36 +2211,226 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>002005</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>工银瑞信新得利混合</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>29.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0539</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +2465,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2307,36 +2495,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000457</t>
+          <t>519002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根核心成长</t>
+          <t>华安安信消费混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.17</t>
+          <t>89.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5430</t>
+          <t>0.5633</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2345,36 +2533,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>377010</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根阿尔法混合</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.43</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4589</t>
+          <t>0.3758</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2383,32 +2571,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>050007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>博时平衡配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>54.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2936</t>
+          <t>0.1227</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2421,36 +2609,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.93</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2689</t>
+          <t>0.1036</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2459,36 +2647,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005888</t>
+          <t>050012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合A</t>
+          <t>博时策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>72.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2271</t>
+          <t>0.0954</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2497,36 +2685,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005889</t>
+          <t>050014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏新兴消费混合C</t>
+          <t>博时创业成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>74.87</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1636</t>
+          <t>0.0933</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2535,36 +2723,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005526</t>
+          <t>002005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
+          <t>工银瑞信新得利混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>29.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1152</t>
+          <t>0.0483</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2573,36 +2761,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>005329</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>汇添富民安增益定期开放混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0955</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2611,32 +2799,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>005015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>泰康景泰回报混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>29.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0923</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2649,32 +2837,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011748</t>
+          <t>005330</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气成长混合A</t>
+          <t>汇添富民安增益定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>28.94</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0843</t>
+          <t>0.0059</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2687,32 +2875,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005599</t>
+          <t>001563</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安量化优选灵活配置混合A</t>
+          <t>华富健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2725,36 +2913,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010032</t>
+          <t>001296</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
+          <t>长城转型成长灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>53.69</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2763,300 +2951,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>002553</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>博时创业成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>74.87</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006644</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>012422</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏优加生活混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014422</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>弘毅远方消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.64</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011749</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰柏瑞景气成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.28</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005600</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇安量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>015170</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>上投摩根核心成长C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.17</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3070,128 +2994,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.91</v>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.65</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.39</v>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.41</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.65</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.62</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1604,7 +1715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2040,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2438,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2988,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
+++ b/数据整理/stocks/A股/创业板/300911-亿田智能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.65</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.62</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1507,7 +1884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2151,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2549,7 +2926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3099,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
